--- a/bank statement generator/bank_statements/statement_121.xlsx
+++ b/bank statement generator/bank_statements/statement_121.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.09.2024</t>
+          <t>KONTOSTAND AM 04.07.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,80 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>29.09.</t>
+          <t>05.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>30.09.</t>
+          <t>06.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL EYTQEZ</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>6,22-</t>
+          <t>51,39-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>03.10.</t>
+          <t>06.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>04.10.</t>
+          <t>07.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU PSUBGU</t>
+          <t>MCDONALDS Soltau</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>27,20-</t>
+          <t>44,17-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>07.10.</t>
+          <t>07.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>08.10.</t>
+          <t>08.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 28381372</t>
+          <t>PAYPAL IMSJGM</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>40,96-</t>
+          <t>48,42-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>11.07.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>12.07.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>RECHNUNG VODAFONE GMBH 12030635</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>41,16-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>15.07.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>16.07.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>BURGER KING Neustrelitz</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>29,23-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -845,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 10.10.2024</t>
+          <t>KONTOSTAND AM 19.07.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>74,38-</t>
+          <t>214,37-</t>
         </is>
       </c>
     </row>
@@ -858,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 17.10.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 27.07.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
